--- a/foundPath/4000pathNodes.xlsx
+++ b/foundPath/4000pathNodes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="36" uniqueCount="4">
   <si>
     <t>X</t>
   </si>
@@ -70,7 +70,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -126,147 +126,147 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>910</v>
+        <v>890</v>
       </c>
       <c r="B4" s="0">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="C4" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0">
-        <v>4.681724069827605</v>
+        <v>3.27485380116959</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>920</v>
+        <v>890</v>
       </c>
       <c r="B5" s="0">
         <v>670</v>
       </c>
       <c r="C5" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="0">
-        <v>5.5388231985385721</v>
+        <v>4.7563352826510723</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>920</v>
+        <v>890</v>
       </c>
       <c r="B6" s="0">
         <v>680</v>
       </c>
       <c r="C6" s="0">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0">
-        <v>6.0651389880122561</v>
+        <v>5.3445705767687191</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>920</v>
+        <v>890</v>
       </c>
       <c r="B7" s="0">
-        <v>730</v>
+        <v>700</v>
       </c>
       <c r="C7" s="0">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" s="0">
-        <v>8.3378662607395295</v>
+        <v>6.3702116024097446</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>930</v>
+        <v>890</v>
       </c>
       <c r="B8" s="0">
-        <v>820</v>
+        <v>750</v>
       </c>
       <c r="C8" s="0">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D8" s="0">
-        <v>11.691712608197831</v>
+        <v>8.5441246458880045</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>920</v>
+        <v>890</v>
       </c>
       <c r="B9" s="0">
-        <v>900</v>
+        <v>830</v>
       </c>
       <c r="C9" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" s="0">
-        <v>14.33507580436129</v>
+        <v>11.302745335543181</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>860</v>
+        <v>890</v>
       </c>
       <c r="B10" s="0">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="C10" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D10" s="0">
-        <v>18.256644431812269</v>
+        <v>13.59782730275629</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>820</v>
+        <v>870</v>
       </c>
       <c r="B11" s="0">
-        <v>1040</v>
+        <v>1000</v>
       </c>
       <c r="C11" s="0">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D11" s="0">
-        <v>21.199951595456341</v>
+        <v>16.997173645151481</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>810</v>
+        <v>860</v>
       </c>
       <c r="B12" s="0">
-        <v>1040</v>
+        <v>1010</v>
       </c>
       <c r="C12" s="0">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D12" s="0">
-        <v>21.538934646303801</v>
+        <v>17.598966650416632</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>780</v>
+        <v>840</v>
       </c>
       <c r="B13" s="0">
         <v>1010</v>
       </c>
       <c r="C13" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D13" s="0">
-        <v>23.512255896126721</v>
+        <v>19.50372855517853</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>780</v>
+        <v>810</v>
       </c>
       <c r="B14" s="0">
         <v>1000</v>
@@ -275,180 +275,180 @@
         <v>15</v>
       </c>
       <c r="D14" s="0">
-        <v>24.22654161041244</v>
+        <v>22.515421564862699</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>780</v>
+        <v>800</v>
       </c>
       <c r="B15" s="0">
         <v>990</v>
       </c>
       <c r="C15" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" s="0">
-        <v>24.85154161041244</v>
+        <v>23.372520693573669</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>780</v>
+        <v>760</v>
       </c>
       <c r="B16" s="0">
-        <v>980</v>
+        <v>920</v>
       </c>
       <c r="C16" s="0">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D16" s="0">
-        <v>25.407097165968</v>
+        <v>26.877850149355648</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>780</v>
+        <v>740</v>
       </c>
       <c r="B17" s="0">
-        <v>970</v>
+        <v>880</v>
       </c>
       <c r="C17" s="0">
-        <v>21</v>
+        <v>22.956651822718079</v>
       </c>
       <c r="D17" s="0">
-        <v>25.907097165968</v>
+        <v>28.63312087261999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="B18" s="0">
-        <v>880</v>
+        <v>840</v>
       </c>
       <c r="C18" s="0">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D18" s="0">
-        <v>29.701830358170049</v>
+        <v>31.09494262208695</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>740</v>
+        <v>680</v>
       </c>
       <c r="B19" s="0">
-        <v>870</v>
+        <v>830</v>
       </c>
       <c r="C19" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D19" s="0">
-        <v>30.23549585340518</v>
+        <v>32.007623429229717</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>700</v>
+        <v>670</v>
       </c>
       <c r="B20" s="0">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="C20" s="0">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D20" s="0">
-        <v>32.138532430000751</v>
+        <v>32.442406037925373</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>690</v>
+        <v>650</v>
       </c>
       <c r="B21" s="0">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="C21" s="0">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D21" s="0">
-        <v>32.564064344894369</v>
+        <v>33.394786990306322</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="B22" s="0">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="C22" s="0">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D22" s="0">
-        <v>34.073498307158523</v>
+        <v>34.459581265306213</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="B23" s="0">
-        <v>890</v>
+        <v>870</v>
       </c>
       <c r="C23" s="0">
-        <v>28.344032536130001</v>
+        <v>29</v>
       </c>
       <c r="D23" s="0">
-        <v>38.155771350424182</v>
+        <v>37.568060084026172</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="B24" s="0">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="C24" s="0">
-        <v>28</v>
+        <v>25.269553775758151</v>
       </c>
       <c r="D24" s="0">
-        <v>39.278260287700938</v>
+        <v>40.539250074499208</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="B25" s="0">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="C25" s="0">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D25" s="0">
-        <v>39.68642355300706</v>
+        <v>41.001468846239931</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="B26" s="0">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="C26" s="0">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D26" s="0">
-        <v>42.698116562691233</v>
+        <v>43.405169696549258</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="B27" s="0">
         <v>870</v>
@@ -457,49 +457,49 @@
         <v>22</v>
       </c>
       <c r="D27" s="0">
-        <v>43.355890312632212</v>
+        <v>46.572913700746028</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="B28" s="0">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="C28" s="0">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D28" s="0">
-        <v>44.307408600929989</v>
+        <v>49.203581909569309</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="B29" s="0">
         <v>820</v>
       </c>
       <c r="C29" s="0">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D29" s="0">
-        <v>45.478622549140503</v>
+        <v>49.972812678800082</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="B30" s="0">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="C30" s="0">
         <v>23</v>
       </c>
       <c r="D30" s="0">
-        <v>47.818146599255194</v>
+        <v>52.883712574548447</v>
       </c>
     </row>
     <row r="31">
@@ -507,41 +507,41 @@
         <v>450</v>
       </c>
       <c r="B31" s="0">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="C31" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D31" s="0">
-        <v>50.925057052097927</v>
+        <v>56.806638850863877</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>490</v>
+        <v>520</v>
       </c>
       <c r="B32" s="0">
-        <v>610</v>
+        <v>560</v>
       </c>
       <c r="C32" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D32" s="0">
-        <v>53.368165460673247</v>
+        <v>60.585886621995847</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="B33" s="0">
-        <v>510</v>
+        <v>460</v>
       </c>
       <c r="C33" s="0">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D33" s="0">
-        <v>57.291091736988683</v>
+        <v>63.753630626192617</v>
       </c>
     </row>
     <row r="34">
@@ -549,125 +549,125 @@
         <v>550</v>
       </c>
       <c r="B34" s="0">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="C34" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D34" s="0">
-        <v>57.905967198890018</v>
+        <v>65.546285246026386</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="B35" s="0">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="C35" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D35" s="0">
-        <v>60.393293790886503</v>
+        <v>66.521604944214729</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="B36" s="0">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="C36" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D36" s="0">
-        <v>62.507706932228892</v>
+        <v>67.763864931714608</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="B37" s="0">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="C37" s="0">
-        <v>16.515454772409619</v>
+        <v>24</v>
       </c>
       <c r="D37" s="0">
-        <v>65.921299690881497</v>
+        <v>70.977986664380737</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>500</v>
+        <v>390</v>
       </c>
       <c r="B38" s="0">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="C38" s="0">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D38" s="0">
-        <v>66.500750262571117</v>
+        <v>73.159804846198924</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="B39" s="0">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C39" s="0">
-        <v>19.662957233546141</v>
+        <v>36</v>
       </c>
       <c r="D39" s="0">
-        <v>70.330031381529608</v>
+        <v>74.652342159631758</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="B40" s="0">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="C40" s="0">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D40" s="0">
-        <v>73.794313714371427</v>
+        <v>75.450937865881684</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="B41" s="0">
-        <v>470</v>
+        <v>370</v>
       </c>
       <c r="C41" s="0">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D41" s="0">
-        <v>75.191856200308791</v>
+        <v>76.124372895583164</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B42" s="0">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="C42" s="0">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D42" s="0">
-        <v>76.708804033304432</v>
+        <v>77.927148533315162</v>
       </c>
     </row>
     <row r="43">
@@ -675,55 +675,55 @@
         <v>270</v>
       </c>
       <c r="B43" s="0">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="C43" s="0">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D43" s="0">
-        <v>77.31314672992599</v>
+        <v>80.411668508314932</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="B44" s="0">
-        <v>380</v>
+        <v>230</v>
       </c>
       <c r="C44" s="0">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D44" s="0">
-        <v>78.851765246250139</v>
+        <v>84.195452292098722</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B45" s="0">
-        <v>330</v>
+        <v>180</v>
       </c>
       <c r="C45" s="0">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D45" s="0">
-        <v>80.368713079245779</v>
+        <v>88.082753555328921</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="B46" s="0">
-        <v>290</v>
+        <v>170</v>
       </c>
       <c r="C46" s="0">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D46" s="0">
-        <v>81.545590962140409</v>
+        <v>89.214124405227395</v>
       </c>
     </row>
     <row r="47">
@@ -731,265 +731,349 @@
         <v>340</v>
       </c>
       <c r="B47" s="0">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="C47" s="0">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D47" s="0">
-        <v>81.967744264341334</v>
+        <v>91.472894162490519</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B48" s="0">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="C48" s="0">
-        <v>27.310640002902041</v>
+        <v>18</v>
       </c>
       <c r="D48" s="0">
-        <v>83.743607582443317</v>
+        <v>92.722894162490519</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>450</v>
+        <v>390</v>
       </c>
       <c r="B49" s="0">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="C49" s="0">
-        <v>16.240556038721319</v>
+        <v>23</v>
       </c>
       <c r="D49" s="0">
-        <v>87.530512191609105</v>
+        <v>94.265468630865342</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>550</v>
+        <v>410</v>
       </c>
       <c r="B50" s="0">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C50" s="0">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D50" s="0">
-        <v>91.361441012025125</v>
+        <v>95.098801964198671</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>590</v>
+        <v>520</v>
       </c>
       <c r="B51" s="0">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C51" s="0">
-        <v>33.837042766453848</v>
+        <v>31</v>
       </c>
       <c r="D51" s="0">
-        <v>92.490793634264818</v>
+        <v>99.043573756051259</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>660</v>
+        <v>550</v>
       </c>
       <c r="B52" s="0">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="C52" s="0">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D52" s="0">
-        <v>94.884108482663351</v>
+        <v>99.966650679128179</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>740</v>
+        <v>600</v>
       </c>
       <c r="B53" s="0">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="C53" s="0">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D53" s="0">
-        <v>97.984976847393568</v>
+        <v>101.35553956801709</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>840</v>
+        <v>710</v>
       </c>
       <c r="B54" s="0">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="C54" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D54" s="0">
-        <v>101.5240637995666</v>
+        <v>104.5499223930168</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="B55" s="0">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="C55" s="0">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D55" s="0">
-        <v>101.93398077416749</v>
+        <v>108.3398681175927</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="B56" s="0">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="C56" s="0">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D56" s="0">
-        <v>102.21567091501259</v>
+        <v>109.029728391921</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>880</v>
+        <v>860</v>
       </c>
       <c r="B57" s="0">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="C57" s="0">
-        <v>27.981171360930471</v>
+        <v>23</v>
       </c>
       <c r="D57" s="0">
-        <v>104.8864578242172</v>
+        <v>112.18159428102661</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="B58" s="0">
-        <v>410</v>
+        <v>310</v>
       </c>
       <c r="C58" s="0">
         <v>29</v>
       </c>
       <c r="D58" s="0">
-        <v>108.1224546410936</v>
+        <v>114.4242680867363</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="B59" s="0">
-        <v>520</v>
+        <v>370</v>
       </c>
       <c r="C59" s="0">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D59" s="0">
-        <v>112.0672264329462</v>
+        <v>116.7196501736413</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>870</v>
+        <v>900</v>
       </c>
       <c r="B60" s="0">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="C60" s="0">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D60" s="0">
-        <v>105.86005375096001</v>
+        <v>117.1278134389474</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>870</v>
+        <v>910</v>
       </c>
       <c r="B61" s="0">
-        <v>340</v>
+        <v>440</v>
       </c>
       <c r="C61" s="0">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D61" s="0">
-        <v>106.1197940107002</v>
+        <v>119.380688450169</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>870</v>
+        <v>900</v>
       </c>
       <c r="B62" s="0">
-        <v>350</v>
+        <v>530</v>
       </c>
       <c r="C62" s="0">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D62" s="0">
-        <v>106.3729585676622</v>
+        <v>123.0767640167557</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>880</v>
+        <v>600</v>
       </c>
       <c r="B63" s="0">
-        <v>420</v>
+        <v>140</v>
       </c>
       <c r="C63" s="0">
-        <v>35.850935175701203</v>
+        <v>26.156227347561281</v>
       </c>
       <c r="D63" s="0">
-        <v>108.2374228080796</v>
+        <v>113.44985994095239</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>890</v>
+        <v>690</v>
       </c>
       <c r="B64" s="0">
-        <v>480</v>
+        <v>160</v>
       </c>
       <c r="C64" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D64" s="0">
-        <v>110.0043596012475</v>
+        <v>116.4649394699419</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>900</v>
+        <v>830</v>
       </c>
       <c r="B65" s="0">
-        <v>520</v>
+        <v>180</v>
       </c>
       <c r="C65" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D65" s="0">
-        <v>111.2170377264292</v>
+        <v>120.3933104765338</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0">
+        <v>870</v>
+      </c>
+      <c r="B66" s="0">
+        <v>210</v>
+      </c>
+      <c r="C66" s="0">
+        <v>15</v>
+      </c>
+      <c r="D66" s="0">
+        <v>122.3163873996107</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0">
+        <v>890</v>
+      </c>
+      <c r="B67" s="0">
+        <v>250</v>
+      </c>
+      <c r="C67" s="0">
+        <v>22</v>
+      </c>
+      <c r="D67" s="0">
+        <v>124.73375818609701</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0">
+        <v>930</v>
+      </c>
+      <c r="B68" s="0">
+        <v>340</v>
+      </c>
+      <c r="C68" s="0">
+        <v>29</v>
+      </c>
+      <c r="D68" s="0">
+        <v>128.59605536327189</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0">
+        <v>940</v>
+      </c>
+      <c r="B69" s="0">
+        <v>440</v>
+      </c>
+      <c r="C69" s="0">
+        <v>25</v>
+      </c>
+      <c r="D69" s="0">
+        <v>132.3182315192426</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0">
+        <v>930</v>
+      </c>
+      <c r="B70" s="0">
+        <v>480</v>
+      </c>
+      <c r="C70" s="0">
+        <v>23</v>
+      </c>
+      <c r="D70" s="0">
+        <v>134.0361921965833</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0">
+        <v>880</v>
+      </c>
+      <c r="B71" s="0">
+        <v>530</v>
+      </c>
+      <c r="C71" s="0">
+        <v>13.4766608603791</v>
+      </c>
+      <c r="D71" s="0">
+        <v>137.91322898946919</v>
       </c>
     </row>
   </sheetData>

--- a/foundPath/4000pathNodes.xlsx
+++ b/foundPath/4000pathNodes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="36" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="44" uniqueCount="4">
   <si>
     <t>X</t>
   </si>
@@ -70,7 +70,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -129,13 +129,13 @@
         <v>890</v>
       </c>
       <c r="B4" s="0">
-        <v>650</v>
+        <v>690</v>
       </c>
       <c r="C4" s="0">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D4" s="0">
-        <v>3.27485380116959</v>
+        <v>5.9259259259259256</v>
       </c>
     </row>
     <row r="5">
@@ -143,13 +143,13 @@
         <v>890</v>
       </c>
       <c r="B5" s="0">
-        <v>670</v>
+        <v>700</v>
       </c>
       <c r="C5" s="0">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D5" s="0">
-        <v>4.7563352826510723</v>
+        <v>6.4259259259259256</v>
       </c>
     </row>
     <row r="6">
@@ -157,55 +157,55 @@
         <v>890</v>
       </c>
       <c r="B6" s="0">
-        <v>680</v>
+        <v>740</v>
       </c>
       <c r="C6" s="0">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D6" s="0">
-        <v>5.3445705767687191</v>
+        <v>8.1280535855003944</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="B7" s="0">
-        <v>700</v>
+        <v>810</v>
       </c>
       <c r="C7" s="0">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D7" s="0">
-        <v>6.3702116024097446</v>
+        <v>10.52502572511581</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="B8" s="0">
-        <v>750</v>
+        <v>870</v>
       </c>
       <c r="C8" s="0">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D8" s="0">
-        <v>8.5441246458880045</v>
+        <v>12.371179571269661</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="B9" s="0">
-        <v>830</v>
+        <v>930</v>
       </c>
       <c r="C9" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" s="0">
-        <v>11.302745335543181</v>
+        <v>14.306663442237401</v>
       </c>
     </row>
     <row r="10">
@@ -213,13 +213,13 @@
         <v>890</v>
       </c>
       <c r="B10" s="0">
-        <v>900</v>
+        <v>970</v>
       </c>
       <c r="C10" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="0">
-        <v>13.59782730275629</v>
+        <v>15.753367170524299</v>
       </c>
     </row>
     <row r="11">
@@ -227,13 +227,13 @@
         <v>870</v>
       </c>
       <c r="B11" s="0">
-        <v>1000</v>
+        <v>1020</v>
       </c>
       <c r="C11" s="0">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D11" s="0">
-        <v>16.997173645151481</v>
+        <v>17.99718584016367</v>
       </c>
     </row>
     <row r="12">
@@ -241,27 +241,27 @@
         <v>860</v>
       </c>
       <c r="B12" s="0">
-        <v>1010</v>
+        <v>1030</v>
       </c>
       <c r="C12" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D12" s="0">
-        <v>17.598966650416632</v>
+        <v>18.741508767728462</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>840</v>
+        <v>820</v>
       </c>
       <c r="B13" s="0">
-        <v>1010</v>
+        <v>1050</v>
       </c>
       <c r="C13" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D13" s="0">
-        <v>19.50372855517853</v>
+        <v>21.935891592728161</v>
       </c>
     </row>
     <row r="14">
@@ -269,223 +269,223 @@
         <v>810</v>
       </c>
       <c r="B14" s="0">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="C14" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14" s="0">
-        <v>22.515421564862699</v>
+        <v>22.76922492606149</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>800</v>
+        <v>770</v>
       </c>
       <c r="B15" s="0">
-        <v>990</v>
+        <v>1030</v>
       </c>
       <c r="C15" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="0">
-        <v>23.372520693573669</v>
+        <v>25.750648896061211</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="B16" s="0">
-        <v>920</v>
+        <v>1010</v>
       </c>
       <c r="C16" s="0">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D16" s="0">
-        <v>26.877850149355648</v>
+        <v>27.239294751190791</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="B17" s="0">
-        <v>880</v>
+        <v>970</v>
       </c>
       <c r="C17" s="0">
-        <v>22.956651822718079</v>
+        <v>21</v>
       </c>
       <c r="D17" s="0">
-        <v>28.63312087261999</v>
+        <v>29.368883301190589</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>700</v>
+        <v>730</v>
       </c>
       <c r="B18" s="0">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="C18" s="0">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D18" s="0">
-        <v>31.09494262208695</v>
+        <v>29.895199090664271</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>680</v>
+        <v>730</v>
       </c>
       <c r="B19" s="0">
-        <v>830</v>
+        <v>880</v>
       </c>
       <c r="C19" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="0">
-        <v>32.007623429229717</v>
+        <v>33.704722900188081</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>670</v>
+        <v>720</v>
       </c>
       <c r="B20" s="0">
-        <v>830</v>
+        <v>860</v>
       </c>
       <c r="C20" s="0">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D20" s="0">
-        <v>32.442406037925373</v>
+        <v>34.769517175187978</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="B21" s="0">
-        <v>830</v>
+        <v>850</v>
       </c>
       <c r="C21" s="0">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D21" s="0">
-        <v>33.394786990306322</v>
+        <v>36.558371557187812</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>630</v>
+        <v>680</v>
       </c>
       <c r="B22" s="0">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="C22" s="0">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D22" s="0">
-        <v>34.459581265306213</v>
+        <v>38.376553375369632</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>560</v>
+        <v>670</v>
       </c>
       <c r="B23" s="0">
-        <v>870</v>
+        <v>850</v>
       </c>
       <c r="C23" s="0">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D23" s="0">
-        <v>37.568060084026172</v>
+        <v>39.043220042036303</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>490</v>
+        <v>650</v>
       </c>
       <c r="B24" s="0">
-        <v>910</v>
+        <v>850</v>
       </c>
       <c r="C24" s="0">
-        <v>25.269553775758151</v>
+        <v>19</v>
       </c>
       <c r="D24" s="0">
-        <v>40.539250074499208</v>
+        <v>40.186077184893442</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="B25" s="0">
-        <v>910</v>
+        <v>850</v>
       </c>
       <c r="C25" s="0">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D25" s="0">
-        <v>41.001468846239931</v>
+        <v>40.686077184893442</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>450</v>
+        <v>620</v>
       </c>
       <c r="B26" s="0">
-        <v>890</v>
+        <v>850</v>
       </c>
       <c r="C26" s="0">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D26" s="0">
-        <v>43.405169696549258</v>
+        <v>41.574966073782328</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>400</v>
+        <v>570</v>
       </c>
       <c r="B27" s="0">
         <v>870</v>
       </c>
       <c r="C27" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="0">
-        <v>46.572913700746028</v>
+        <v>43.968372654730999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>380</v>
+        <v>490</v>
       </c>
       <c r="B28" s="0">
-        <v>830</v>
+        <v>890</v>
       </c>
       <c r="C28" s="0">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D28" s="0">
-        <v>49.203581909569309</v>
+        <v>47.266857155225132</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>380</v>
+        <v>460</v>
       </c>
       <c r="B29" s="0">
-        <v>820</v>
+        <v>890</v>
       </c>
       <c r="C29" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D29" s="0">
-        <v>49.972812678800082</v>
+        <v>48.571204981312079</v>
       </c>
     </row>
     <row r="30">
@@ -493,461 +493,461 @@
         <v>400</v>
       </c>
       <c r="B30" s="0">
-        <v>770</v>
+        <v>860</v>
       </c>
       <c r="C30" s="0">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D30" s="0">
-        <v>52.883712574548447</v>
+        <v>52.517207294546999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="B31" s="0">
-        <v>670</v>
+        <v>840</v>
       </c>
       <c r="C31" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D31" s="0">
-        <v>56.806638850863877</v>
+        <v>54.005853149676582</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>520</v>
+        <v>360</v>
       </c>
       <c r="B32" s="0">
-        <v>560</v>
+        <v>770</v>
       </c>
       <c r="C32" s="0">
-        <v>35</v>
+        <v>15.17368524526475</v>
       </c>
       <c r="D32" s="0">
-        <v>60.585886621995847</v>
+        <v>58.030939252969581</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>560</v>
+        <v>360</v>
       </c>
       <c r="B33" s="0">
-        <v>460</v>
+        <v>760</v>
       </c>
       <c r="C33" s="0">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D33" s="0">
-        <v>63.753630626192617</v>
+        <v>58.672506005268723</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>550</v>
+        <v>370</v>
       </c>
       <c r="B34" s="0">
-        <v>420</v>
+        <v>720</v>
       </c>
       <c r="C34" s="0">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D34" s="0">
-        <v>65.546285246026386</v>
+        <v>60.84256159769906</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>540</v>
+        <v>390</v>
       </c>
       <c r="B35" s="0">
-        <v>410</v>
+        <v>690</v>
       </c>
       <c r="C35" s="0">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D35" s="0">
-        <v>66.521604944214729</v>
+        <v>62.344874629142389</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="B36" s="0">
-        <v>400</v>
+        <v>630</v>
       </c>
       <c r="C36" s="0">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D36" s="0">
-        <v>67.763864931714608</v>
+        <v>64.94829118777794</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="B37" s="0">
-        <v>390</v>
+        <v>550</v>
       </c>
       <c r="C37" s="0">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D37" s="0">
-        <v>70.977986664380737</v>
+        <v>68.270211754257517</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>390</v>
+        <v>540</v>
       </c>
       <c r="B38" s="0">
-        <v>390</v>
+        <v>500</v>
       </c>
       <c r="C38" s="0">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D38" s="0">
-        <v>73.159804846198924</v>
+        <v>70.470570959859515</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>340</v>
+        <v>550</v>
       </c>
       <c r="B39" s="0">
-        <v>390</v>
+        <v>460</v>
       </c>
       <c r="C39" s="0">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D39" s="0">
-        <v>74.652342159631758</v>
+        <v>72.433954591106016</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>320</v>
+        <v>550</v>
       </c>
       <c r="B40" s="0">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="C40" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D40" s="0">
-        <v>75.450937865881684</v>
+        <v>72.933954591106016</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>310</v>
+        <v>540</v>
       </c>
       <c r="B41" s="0">
-        <v>370</v>
+        <v>440</v>
       </c>
       <c r="C41" s="0">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D41" s="0">
-        <v>76.124372895583164</v>
+        <v>74.219603284172464</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>290</v>
+        <v>520</v>
       </c>
       <c r="B42" s="0">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="C42" s="0">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D42" s="0">
-        <v>77.927148533315162</v>
+        <v>77.659707864941367</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="B43" s="0">
-        <v>300</v>
+        <v>430</v>
       </c>
       <c r="C43" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D43" s="0">
-        <v>80.411668508314932</v>
+        <v>79.088279293512798</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>270</v>
+        <v>490</v>
       </c>
       <c r="B44" s="0">
-        <v>230</v>
+        <v>430</v>
       </c>
       <c r="C44" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D44" s="0">
-        <v>84.195452292098722</v>
+        <v>79.67651458763045</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="B45" s="0">
-        <v>180</v>
+        <v>430</v>
       </c>
       <c r="C45" s="0">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D45" s="0">
-        <v>88.082753555328921</v>
+        <v>80.202830377104135</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>310</v>
+        <v>460</v>
       </c>
       <c r="B46" s="0">
-        <v>170</v>
+        <v>430</v>
       </c>
       <c r="C46" s="0">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D46" s="0">
-        <v>89.214124405227395</v>
+        <v>81.133062935243672</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>340</v>
+        <v>440</v>
       </c>
       <c r="B47" s="0">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="C47" s="0">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D47" s="0">
-        <v>91.472894162490519</v>
+        <v>81.966396268577</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="B48" s="0">
-        <v>160</v>
+        <v>440</v>
       </c>
       <c r="C48" s="0">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D48" s="0">
-        <v>92.722894162490519</v>
+        <v>83.649296523931142</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="B49" s="0">
-        <v>150</v>
+        <v>430</v>
       </c>
       <c r="C49" s="0">
-        <v>23</v>
+        <v>18.470065829380729</v>
       </c>
       <c r="D49" s="0">
-        <v>94.265468630865342</v>
+        <v>86.050526385018514</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>410</v>
+        <v>290</v>
       </c>
       <c r="B50" s="0">
-        <v>150</v>
+        <v>390</v>
       </c>
       <c r="C50" s="0">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D50" s="0">
-        <v>95.098801964198671</v>
+        <v>89.704486620149495</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>520</v>
+        <v>280</v>
       </c>
       <c r="B51" s="0">
-        <v>160</v>
+        <v>380</v>
       </c>
       <c r="C51" s="0">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D51" s="0">
-        <v>99.043573756051259</v>
+        <v>90.347310966682727</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>550</v>
+        <v>260</v>
       </c>
       <c r="B52" s="0">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="C52" s="0">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D52" s="0">
-        <v>99.966650679128179</v>
+        <v>91.949778200222283</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="B53" s="0">
-        <v>160</v>
+        <v>310</v>
       </c>
       <c r="C53" s="0">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D53" s="0">
-        <v>101.35553956801709</v>
+        <v>93.775139814507824</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>710</v>
+        <v>240</v>
       </c>
       <c r="B54" s="0">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="C54" s="0">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D54" s="0">
-        <v>104.5499223930168</v>
+        <v>94.684230723598731</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>820</v>
+        <v>260</v>
       </c>
       <c r="B55" s="0">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="C55" s="0">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D55" s="0">
-        <v>108.3398681175927</v>
+        <v>97.259624491787292</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>830</v>
+        <v>270</v>
       </c>
       <c r="B56" s="0">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="C56" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D56" s="0">
-        <v>109.029728391921</v>
+        <v>98.915971141787139</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>860</v>
+        <v>290</v>
       </c>
       <c r="B57" s="0">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="C57" s="0">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D57" s="0">
-        <v>112.18159428102661</v>
+        <v>100.44485066867701</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>890</v>
+        <v>330</v>
       </c>
       <c r="B58" s="0">
-        <v>310</v>
+        <v>170</v>
       </c>
       <c r="C58" s="0">
         <v>29</v>
       </c>
       <c r="D58" s="0">
-        <v>114.4242680867363</v>
+        <v>103.00610036365011</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>900</v>
+        <v>360</v>
       </c>
       <c r="B59" s="0">
-        <v>370</v>
+        <v>140</v>
       </c>
       <c r="C59" s="0">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D59" s="0">
-        <v>116.7196501736413</v>
+        <v>104.37469413368861</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>900</v>
+        <v>380</v>
       </c>
       <c r="B60" s="0">
-        <v>380</v>
+        <v>130</v>
       </c>
       <c r="C60" s="0">
         <v>25</v>
       </c>
       <c r="D60" s="0">
-        <v>117.1278134389474</v>
+        <v>105.1457520569644</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>910</v>
+        <v>480</v>
       </c>
       <c r="B61" s="0">
-        <v>440</v>
+        <v>110</v>
       </c>
       <c r="C61" s="0">
-        <v>29</v>
+        <v>27.439894486170861</v>
       </c>
       <c r="D61" s="0">
-        <v>119.380688450169</v>
+        <v>109.0351721738851</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="B62" s="0">
-        <v>530</v>
+        <v>110</v>
       </c>
       <c r="C62" s="0">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D62" s="0">
-        <v>123.0767640167557</v>
+        <v>109.73155228317709</v>
       </c>
     </row>
     <row r="63">
@@ -1022,58 +1022,72 @@
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>930</v>
+        <v>900</v>
       </c>
       <c r="B68" s="0">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="C68" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D68" s="0">
-        <v>128.59605536327189</v>
+        <v>126.4166584414511</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>940</v>
+        <v>920</v>
       </c>
       <c r="B69" s="0">
-        <v>440</v>
+        <v>360</v>
       </c>
       <c r="C69" s="0">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D69" s="0">
-        <v>132.3182315192426</v>
+        <v>128.80357971662511</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="B70" s="0">
         <v>480</v>
       </c>
       <c r="C70" s="0">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D70" s="0">
-        <v>134.0361921965833</v>
+        <v>132.66565116443351</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>880</v>
+        <v>940</v>
       </c>
       <c r="B71" s="0">
+        <v>500</v>
+      </c>
+      <c r="C71" s="0">
+        <v>31</v>
+      </c>
+      <c r="D71" s="0">
+        <v>133.33231783110011</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0">
+        <v>940</v>
+      </c>
+      <c r="B72" s="0">
         <v>530</v>
       </c>
-      <c r="C71" s="0">
-        <v>13.4766608603791</v>
-      </c>
-      <c r="D71" s="0">
-        <v>137.91322898946919</v>
+      <c r="C72" s="0">
+        <v>34</v>
+      </c>
+      <c r="D72" s="0">
+        <v>134.2553947541771</v>
       </c>
     </row>
   </sheetData>
